--- a/pile5_sect_4_all.xlsx
+++ b/pile5_sect_4_all.xlsx
@@ -455,10 +455,10 @@
         <v>44062</v>
       </c>
       <c r="B3">
-        <v>26.11916666666666</v>
+        <v>26.11916666666667</v>
       </c>
       <c r="C3">
-        <v>24.75291666666666</v>
+        <v>24.75291666666667</v>
       </c>
       <c r="D3">
         <v>25.19833333333333</v>
@@ -501,13 +501,13 @@
         <v>44064</v>
       </c>
       <c r="B5">
-        <v>27.13916666666666</v>
+        <v>27.13916666666667</v>
       </c>
       <c r="C5">
         <v>35.06958333333333</v>
       </c>
       <c r="D5">
-        <v>38.23333333333334</v>
+        <v>38.23333333333333</v>
       </c>
       <c r="E5">
         <v>19.36333333333333</v>
@@ -530,7 +530,7 @@
         <v>34.09916666666667</v>
       </c>
       <c r="D6">
-        <v>36.40416666666666</v>
+        <v>36.40416666666667</v>
       </c>
       <c r="E6">
         <v>17.80791666666667</v>
@@ -553,7 +553,7 @@
         <v>25.14875</v>
       </c>
       <c r="D7">
-        <v>34.82583333333333</v>
+        <v>34.82583333333334</v>
       </c>
       <c r="E7">
         <v>18.33416666666666</v>
@@ -573,13 +573,13 @@
         <v>28.60208333333334</v>
       </c>
       <c r="C8">
-        <v>22.45541666666667</v>
+        <v>22.45541666666666</v>
       </c>
       <c r="D8">
         <v>35.88</v>
       </c>
       <c r="E8">
-        <v>15.49416666666666</v>
+        <v>15.49416666666667</v>
       </c>
       <c r="F8">
         <v>81.625</v>
@@ -639,7 +639,7 @@
         <v>44070</v>
       </c>
       <c r="B11">
-        <v>25.92375000000001</v>
+        <v>25.92375</v>
       </c>
       <c r="C11">
         <v>14.44333333333333</v>
@@ -691,10 +691,10 @@
         <v>15.90083333333333</v>
       </c>
       <c r="D13">
-        <v>31.08541666666667</v>
+        <v>31.08541666666666</v>
       </c>
       <c r="E13">
-        <v>13.90666666666666</v>
+        <v>13.90666666666667</v>
       </c>
       <c r="F13">
         <v>77</v>
@@ -734,13 +734,13 @@
         <v>21.49916666666667</v>
       </c>
       <c r="C15">
-        <v>20.35041666666667</v>
+        <v>20.35041666666666</v>
       </c>
       <c r="D15">
         <v>27.47458333333333</v>
       </c>
       <c r="E15">
-        <v>14.04916666666666</v>
+        <v>14.04916666666667</v>
       </c>
       <c r="F15">
         <v>73.5</v>
@@ -760,7 +760,7 @@
         <v>16.08875</v>
       </c>
       <c r="D16">
-        <v>26.36291666666668</v>
+        <v>26.36291666666667</v>
       </c>
       <c r="E16">
         <v>12.52075</v>
@@ -806,7 +806,7 @@
         <v>19.77708333333333</v>
       </c>
       <c r="D18">
-        <v>24.53916666666667</v>
+        <v>24.53916666666666</v>
       </c>
       <c r="E18">
         <v>13.70083333333333</v>
@@ -829,7 +829,7 @@
         <v>17.72083333333333</v>
       </c>
       <c r="D19">
-        <v>22.79083333333333</v>
+        <v>22.79083333333334</v>
       </c>
       <c r="E19">
         <v>16.56791666666667</v>
@@ -846,7 +846,7 @@
         <v>44079</v>
       </c>
       <c r="B20">
-        <v>18.94708333333333</v>
+        <v>18.94708333333334</v>
       </c>
       <c r="C20">
         <v>19.14625</v>
@@ -861,7 +861,7 @@
         <v>85.41666666666667</v>
       </c>
       <c r="G20">
-        <v>4.400000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -895,10 +895,10 @@
         <v>21.04166666666667</v>
       </c>
       <c r="C22">
-        <v>16.90958333333334</v>
+        <v>16.90958333333333</v>
       </c>
       <c r="D22">
-        <v>25.02416666666666</v>
+        <v>25.02416666666667</v>
       </c>
       <c r="E22">
         <v>13.09291666666667</v>
@@ -938,13 +938,13 @@
         <v>44083</v>
       </c>
       <c r="B24">
-        <v>22.50874999999999</v>
+        <v>22.50875</v>
       </c>
       <c r="C24">
         <v>13.41666666666667</v>
       </c>
       <c r="D24">
-        <v>26.97666666666666</v>
+        <v>26.97666666666667</v>
       </c>
       <c r="E24">
         <v>13.22791666666667</v>
@@ -993,7 +993,7 @@
         <v>25.6275</v>
       </c>
       <c r="E26">
-        <v>9.641958333333331</v>
+        <v>9.641958333333333</v>
       </c>
       <c r="F26">
         <v>83.04166666666667</v>
@@ -1045,7 +1045,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="G28">
-        <v>9.799999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1053,13 +1053,13 @@
         <v>44088</v>
       </c>
       <c r="B29">
-        <v>18.51208333333334</v>
+        <v>18.51208333333333</v>
       </c>
       <c r="C29">
         <v>10.26945833333333</v>
       </c>
       <c r="D29">
-        <v>15.62166666666666</v>
+        <v>15.62166666666667</v>
       </c>
       <c r="E29">
         <v>11.25125</v>
@@ -1079,10 +1079,10 @@
         <v>18.04708333333333</v>
       </c>
       <c r="C30">
-        <v>10.63083333333334</v>
+        <v>10.63083333333333</v>
       </c>
       <c r="D30">
-        <v>15.51291666666666</v>
+        <v>15.51291666666667</v>
       </c>
       <c r="E30">
         <v>10.424</v>
@@ -1099,16 +1099,16 @@
         <v>44090</v>
       </c>
       <c r="B31">
-        <v>17.36791666666666</v>
+        <v>17.36791666666667</v>
       </c>
       <c r="C31">
-        <v>9.104458333333335</v>
+        <v>9.104458333333334</v>
       </c>
       <c r="D31">
         <v>20.75791666666667</v>
       </c>
       <c r="E31">
-        <v>9.808458333333334</v>
+        <v>9.808458333333332</v>
       </c>
       <c r="F31">
         <v>93.45833333333333</v>
@@ -1154,7 +1154,7 @@
         <v>20.65625</v>
       </c>
       <c r="E33">
-        <v>8.436250000000001</v>
+        <v>8.436249999999999</v>
       </c>
       <c r="F33">
         <v>79.875</v>
@@ -1191,16 +1191,16 @@
         <v>44094</v>
       </c>
       <c r="B35">
-        <v>17.58416666666667</v>
+        <v>17.58416666666666</v>
       </c>
       <c r="C35">
         <v>8.390916666666667</v>
       </c>
       <c r="D35">
-        <v>19.51375000000001</v>
+        <v>19.51375</v>
       </c>
       <c r="E35">
-        <v>8.898416666666664</v>
+        <v>8.898416666666668</v>
       </c>
       <c r="F35">
         <v>78.875</v>
@@ -1246,7 +1246,7 @@
         <v>12.07083333333333</v>
       </c>
       <c r="E37">
-        <v>10.81533333333334</v>
+        <v>10.81533333333333</v>
       </c>
       <c r="F37">
         <v>70.125</v>
@@ -1292,7 +1292,7 @@
         <v>19.26958333333333</v>
       </c>
       <c r="E39">
-        <v>12.02708333333334</v>
+        <v>12.02708333333333</v>
       </c>
       <c r="F39">
         <v>94.66666666666667</v>
@@ -1306,7 +1306,7 @@
         <v>44099</v>
       </c>
       <c r="B40">
-        <v>18.28958333333334</v>
+        <v>18.28958333333333</v>
       </c>
       <c r="C40">
         <v>12.21583333333333</v>
@@ -1335,7 +1335,7 @@
         <v>12.585</v>
       </c>
       <c r="D41">
-        <v>23.79458333333333</v>
+        <v>23.79458333333334</v>
       </c>
       <c r="E41">
         <v>13.40208333333333</v>
@@ -1375,7 +1375,7 @@
         <v>44102</v>
       </c>
       <c r="B43">
-        <v>20.21374999999999</v>
+        <v>20.21375</v>
       </c>
       <c r="C43">
         <v>9.907791666666666</v>
@@ -1430,7 +1430,7 @@
         <v>28.49875</v>
       </c>
       <c r="E45">
-        <v>11.40041666666666</v>
+        <v>11.40041666666667</v>
       </c>
       <c r="F45">
         <v>91.41666666666667</v>
@@ -1444,7 +1444,7 @@
         <v>44105</v>
       </c>
       <c r="B46">
-        <v>21.59666666666666</v>
+        <v>21.59666666666667</v>
       </c>
       <c r="C46">
         <v>11.13058333333333</v>
@@ -1476,7 +1476,7 @@
         <v>28.63666666666667</v>
       </c>
       <c r="E47">
-        <v>10.73166666666666</v>
+        <v>10.73166666666667</v>
       </c>
       <c r="F47">
         <v>88.33333333333333</v>
@@ -1513,10 +1513,10 @@
         <v>44108</v>
       </c>
       <c r="B49">
-        <v>19.27291666666666</v>
+        <v>19.27291666666667</v>
       </c>
       <c r="C49">
-        <v>11.13495833333334</v>
+        <v>11.13495833333333</v>
       </c>
       <c r="D49">
         <v>22.29291666666667</v>
@@ -1559,7 +1559,7 @@
         <v>44110</v>
       </c>
       <c r="B51">
-        <v>17.67333333333333</v>
+        <v>17.67333333333334</v>
       </c>
       <c r="C51">
         <v>10.931</v>
@@ -1591,7 +1591,7 @@
         <v>20.26333333333333</v>
       </c>
       <c r="E52">
-        <v>11.91708333333334</v>
+        <v>11.91708333333333</v>
       </c>
       <c r="F52">
         <v>90.29166666666667</v>
@@ -1605,7 +1605,7 @@
         <v>44112</v>
       </c>
       <c r="B53">
-        <v>18.45083333333334</v>
+        <v>18.45083333333333</v>
       </c>
       <c r="C53">
         <v>11.23958333333333</v>
@@ -1628,7 +1628,7 @@
         <v>44113</v>
       </c>
       <c r="B54">
-        <v>19.15916666666666</v>
+        <v>19.15916666666667</v>
       </c>
       <c r="C54">
         <v>10.995</v>
@@ -1654,13 +1654,13 @@
         <v>19.59166666666667</v>
       </c>
       <c r="C55">
-        <v>9.042083333333334</v>
+        <v>9.042083333333332</v>
       </c>
       <c r="D55">
         <v>25.46791666666667</v>
       </c>
       <c r="E55">
-        <v>9.957500000000001</v>
+        <v>9.9575</v>
       </c>
       <c r="F55">
         <v>82.29166666666667</v>
@@ -1677,19 +1677,19 @@
         <v>20.01125</v>
       </c>
       <c r="C56">
-        <v>8.713958333333336</v>
+        <v>8.713958333333332</v>
       </c>
       <c r="D56">
         <v>28.85875</v>
       </c>
       <c r="E56">
-        <v>8.823416666666665</v>
+        <v>8.823416666666667</v>
       </c>
       <c r="F56">
         <v>93.79166666666667</v>
       </c>
       <c r="G56">
-        <v>5.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1700,13 +1700,13 @@
         <v>20.5825</v>
       </c>
       <c r="C57">
-        <v>8.462541666666668</v>
+        <v>8.462541666666667</v>
       </c>
       <c r="D57">
         <v>28.355</v>
       </c>
       <c r="E57">
-        <v>8.284124999999998</v>
+        <v>8.284125</v>
       </c>
       <c r="F57">
         <v>95.08333333333333</v>
@@ -1723,10 +1723,10 @@
         <v>20.9275</v>
       </c>
       <c r="C58">
-        <v>8.277750000000001</v>
+        <v>8.277749999999999</v>
       </c>
       <c r="D58">
-        <v>28.22833333333333</v>
+        <v>28.22833333333334</v>
       </c>
       <c r="E58">
         <v>8.141958333333333</v>
@@ -1752,7 +1752,7 @@
         <v>24.48291666666667</v>
       </c>
       <c r="E59">
-        <v>5.322166666666666</v>
+        <v>5.322166666666667</v>
       </c>
       <c r="F59">
         <v>87.375</v>
@@ -1769,7 +1769,7 @@
         <v>18.66333333333333</v>
       </c>
       <c r="C60">
-        <v>1.988041666666666</v>
+        <v>1.988041666666667</v>
       </c>
       <c r="D60">
         <v>23.31</v>
@@ -1821,7 +1821,7 @@
         <v>22.295</v>
       </c>
       <c r="E62">
-        <v>4.374166666666666</v>
+        <v>4.374166666666667</v>
       </c>
       <c r="F62">
         <v>91.95833333333333</v>
@@ -1861,10 +1861,10 @@
         <v>14.08875</v>
       </c>
       <c r="C64">
-        <v>2.236541666666666</v>
+        <v>2.236541666666667</v>
       </c>
       <c r="D64">
-        <v>22.75874999999999</v>
+        <v>22.75875</v>
       </c>
       <c r="E64">
         <v>1.681791666666667</v>
@@ -1890,7 +1890,7 @@
         <v>16.38208333333333</v>
       </c>
       <c r="E65">
-        <v>0.1062916666666666</v>
+        <v>0.1062916666666667</v>
       </c>
       <c r="F65">
         <v>85.5</v>
@@ -1907,19 +1907,19 @@
         <v>11.63916666666667</v>
       </c>
       <c r="C66">
-        <v>0.7805833333333334</v>
+        <v>0.7805833333333333</v>
       </c>
       <c r="D66">
         <v>18.20875</v>
       </c>
       <c r="E66">
-        <v>0.5442499999999999</v>
+        <v>0.54425</v>
       </c>
       <c r="F66">
         <v>87.125</v>
       </c>
       <c r="G66">
-        <v>5.400000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>12.40125</v>
       </c>
       <c r="E67">
-        <v>4.699583333333332</v>
+        <v>4.699583333333334</v>
       </c>
       <c r="F67">
         <v>95.83333333333333</v>
@@ -1950,7 +1950,7 @@
         <v>44127</v>
       </c>
       <c r="B68">
-        <v>9.327916666666665</v>
+        <v>9.327916666666667</v>
       </c>
       <c r="C68">
         <v>3.319541666666666</v>
@@ -1982,7 +1982,7 @@
         <v>16.655</v>
       </c>
       <c r="E69">
-        <v>1.863583333333334</v>
+        <v>1.863583333333333</v>
       </c>
       <c r="F69">
         <v>83.20833333333333</v>
@@ -1999,7 +1999,7 @@
         <v>9.924166666666666</v>
       </c>
       <c r="C70">
-        <v>-0.7254583333333332</v>
+        <v>-0.7254583333333334</v>
       </c>
       <c r="D70">
         <v>13.95833333333333</v>
@@ -2019,7 +2019,7 @@
         <v>44130</v>
       </c>
       <c r="B71">
-        <v>9.081666666666665</v>
+        <v>9.081666666666667</v>
       </c>
       <c r="C71">
         <v>6.2695</v>
@@ -2028,7 +2028,7 @@
         <v>18.75625</v>
       </c>
       <c r="E71">
-        <v>7.442125000000001</v>
+        <v>7.442125</v>
       </c>
       <c r="F71">
         <v>91.16666666666667</v>
@@ -2045,7 +2045,7 @@
         <v>8.565</v>
       </c>
       <c r="C72">
-        <v>8.714791666666665</v>
+        <v>8.714791666666667</v>
       </c>
       <c r="D72">
         <v>17.21166666666667</v>
@@ -2088,10 +2088,10 @@
         <v>44133</v>
       </c>
       <c r="B74">
-        <v>8.712916666666665</v>
+        <v>8.712916666666667</v>
       </c>
       <c r="C74">
-        <v>7.000541666666668</v>
+        <v>7.000541666666667</v>
       </c>
       <c r="D74">
         <v>21.10375</v>
@@ -2111,10 +2111,10 @@
         <v>44134</v>
       </c>
       <c r="B75">
-        <v>9.230000000000002</v>
+        <v>9.23</v>
       </c>
       <c r="C75">
-        <v>5.175083333333332</v>
+        <v>5.175083333333333</v>
       </c>
       <c r="D75">
         <v>18.64041666666667</v>
@@ -2134,16 +2134,16 @@
         <v>44135</v>
       </c>
       <c r="B76">
-        <v>9.504166666666665</v>
+        <v>9.504166666666666</v>
       </c>
       <c r="C76">
-        <v>0.6810833333333335</v>
+        <v>0.6810833333333334</v>
       </c>
       <c r="D76">
-        <v>20.63083333333334</v>
+        <v>20.63083333333333</v>
       </c>
       <c r="E76">
-        <v>0.06470833333333344</v>
+        <v>0.06470833333333334</v>
       </c>
       <c r="F76">
         <v>91.04166666666667</v>
@@ -2157,16 +2157,16 @@
         <v>44136</v>
       </c>
       <c r="B77">
-        <v>9.885833333333336</v>
+        <v>9.885833333333332</v>
       </c>
       <c r="C77">
-        <v>4.530458333333335</v>
+        <v>4.530458333333333</v>
       </c>
       <c r="D77">
         <v>17.69166666666667</v>
       </c>
       <c r="E77">
-        <v>5.111250000000001</v>
+        <v>5.11125</v>
       </c>
       <c r="F77">
         <v>88.41666666666667</v>
@@ -2189,7 +2189,7 @@
         <v>11.51666666666667</v>
       </c>
       <c r="E78">
-        <v>4.344749999999999</v>
+        <v>4.34475</v>
       </c>
       <c r="F78">
         <v>85.30434782608695</v>
@@ -2206,13 +2206,13 @@
         <v>8.935416666666667</v>
       </c>
       <c r="C79">
-        <v>8.052250000000001</v>
+        <v>8.052249999999999</v>
       </c>
       <c r="D79">
-        <v>11.34116666666666</v>
+        <v>11.34116666666667</v>
       </c>
       <c r="E79">
-        <v>8.991499999999998</v>
+        <v>8.9915</v>
       </c>
       <c r="F79">
         <v>88.70833333333333</v>
@@ -2229,7 +2229,7 @@
         <v>9.97625</v>
       </c>
       <c r="C80">
-        <v>4.695124999999999</v>
+        <v>4.695125</v>
       </c>
       <c r="D80">
         <v>14.06041666666667</v>
@@ -2249,16 +2249,16 @@
         <v>44140</v>
       </c>
       <c r="B81">
-        <v>10.73666666666666</v>
+        <v>10.73666666666667</v>
       </c>
       <c r="C81">
-        <v>4.342124999999999</v>
+        <v>4.342125</v>
       </c>
       <c r="D81">
         <v>9.72875</v>
       </c>
       <c r="E81">
-        <v>5.708000000000001</v>
+        <v>5.707999999999999</v>
       </c>
       <c r="F81">
         <v>75.875</v>
@@ -2275,10 +2275,10 @@
         <v>11.10041666666667</v>
       </c>
       <c r="C82">
-        <v>4.503166666666667</v>
+        <v>4.503166666666666</v>
       </c>
       <c r="D82">
-        <v>4.975999999999999</v>
+        <v>4.976</v>
       </c>
       <c r="E82">
         <v>6.37025</v>
@@ -2295,7 +2295,7 @@
         <v>44142</v>
       </c>
       <c r="B83">
-        <v>11.60666666666666</v>
+        <v>11.60666666666667</v>
       </c>
       <c r="C83">
         <v>6.383958333333333</v>
@@ -2304,7 +2304,7 @@
         <v>4.436</v>
       </c>
       <c r="E83">
-        <v>8.343624999999999</v>
+        <v>8.343625000000001</v>
       </c>
       <c r="F83">
         <v>71.25</v>
@@ -2324,7 +2324,7 @@
         <v>-0.1389166666666667</v>
       </c>
       <c r="D84">
-        <v>5.268791666666668</v>
+        <v>5.268791666666666</v>
       </c>
       <c r="E84">
         <v>1.694583333333333</v>
@@ -2347,7 +2347,7 @@
         <v>0.08120833333333337</v>
       </c>
       <c r="D85">
-        <v>6.926416666666666</v>
+        <v>6.926416666666667</v>
       </c>
       <c r="E85">
         <v>1.982708333333333</v>
@@ -2370,10 +2370,10 @@
         <v>-2.991166666666667</v>
       </c>
       <c r="D86">
-        <v>7.066666666666667</v>
+        <v>7.066666666666666</v>
       </c>
       <c r="E86">
-        <v>-0.8717916666666666</v>
+        <v>-0.8717916666666667</v>
       </c>
       <c r="F86">
         <v>85.45833333333333</v>
@@ -2416,7 +2416,7 @@
         <v>2.005125</v>
       </c>
       <c r="D88">
-        <v>12.37791666666666</v>
+        <v>12.37791666666667</v>
       </c>
       <c r="E88">
         <v>2.956208333333333</v>
@@ -2436,13 +2436,13 @@
         <v>12.01916666666667</v>
       </c>
       <c r="C89">
-        <v>2.510333333333334</v>
+        <v>2.510333333333333</v>
       </c>
       <c r="D89">
         <v>14.195</v>
       </c>
       <c r="E89">
-        <v>3.387333333333333</v>
+        <v>3.387333333333334</v>
       </c>
       <c r="F89">
         <v>85.83333333333333</v>
@@ -2465,7 +2465,7 @@
         <v>17.49625</v>
       </c>
       <c r="E90">
-        <v>2.419041666666666</v>
+        <v>2.419041666666667</v>
       </c>
       <c r="F90">
         <v>86.54166666666667</v>
@@ -2488,7 +2488,7 @@
         <v>18.31333333333333</v>
       </c>
       <c r="E91">
-        <v>1.449333333333334</v>
+        <v>1.449333333333333</v>
       </c>
       <c r="F91">
         <v>86.04166666666667</v>
@@ -2525,7 +2525,7 @@
         <v>44152</v>
       </c>
       <c r="B93">
-        <v>7.480291666666667</v>
+        <v>7.480291666666666</v>
       </c>
       <c r="C93">
         <v>2.649375</v>
@@ -2534,13 +2534,13 @@
         <v>11.27666666666667</v>
       </c>
       <c r="E93">
-        <v>3.076833333333334</v>
+        <v>3.076833333333333</v>
       </c>
       <c r="F93">
         <v>95.08333333333333</v>
       </c>
       <c r="G93">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2548,7 +2548,7 @@
         <v>44153</v>
       </c>
       <c r="B94">
-        <v>6.666166666666668</v>
+        <v>6.666166666666666</v>
       </c>
       <c r="C94">
         <v>4.14375</v>
@@ -2571,7 +2571,7 @@
         <v>44154</v>
       </c>
       <c r="B95">
-        <v>7.091250000000002</v>
+        <v>7.09125</v>
       </c>
       <c r="C95">
         <v>6.222916666666666</v>
@@ -2580,7 +2580,7 @@
         <v>9.749666666666666</v>
       </c>
       <c r="E95">
-        <v>7.258541666666669</v>
+        <v>7.258541666666667</v>
       </c>
       <c r="F95">
         <v>84.95833333333333</v>
@@ -2594,7 +2594,7 @@
         <v>44155</v>
       </c>
       <c r="B96">
-        <v>7.554000000000001</v>
+        <v>7.553999999999999</v>
       </c>
       <c r="C96">
         <v>-0.9107083333333333</v>
@@ -2623,7 +2623,7 @@
         <v>-1.559708333333333</v>
       </c>
       <c r="D97">
-        <v>9.590624999999999</v>
+        <v>9.590625000000001</v>
       </c>
       <c r="E97">
         <v>-1.979541666666667</v>
@@ -2632,7 +2632,7 @@
         <v>91.33333333333333</v>
       </c>
       <c r="G97">
-        <v>3.399999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2640,7 +2640,7 @@
         <v>44157</v>
       </c>
       <c r="B98">
-        <v>6.665749999999998</v>
+        <v>6.66575</v>
       </c>
       <c r="C98">
         <v>0.3568333333333333</v>
@@ -2649,7 +2649,7 @@
         <v>12.3525</v>
       </c>
       <c r="E98">
-        <v>2.580124999999999</v>
+        <v>2.580125</v>
       </c>
       <c r="F98">
         <v>91.625</v>
@@ -2689,10 +2689,10 @@
         <v>7.315458333333333</v>
       </c>
       <c r="C100">
-        <v>0.02600000000000004</v>
+        <v>0.02600000000000001</v>
       </c>
       <c r="D100">
-        <v>6.653458333333334</v>
+        <v>6.653458333333333</v>
       </c>
       <c r="E100">
         <v>0.4089583333333333</v>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="B101">
-        <v>7.218708333333335</v>
+        <v>7.218708333333333</v>
       </c>
       <c r="C101">
         <v>-1.306</v>
@@ -2747,7 +2747,7 @@
         <v>91.83333333333333</v>
       </c>
       <c r="G102">
-        <v>7.200000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2801,7 +2801,7 @@
         <v>44164</v>
       </c>
       <c r="B105">
-        <v>6.253833333333332</v>
+        <v>6.253833333333333</v>
       </c>
       <c r="C105">
         <v>-0.1217083333333333</v>
@@ -2824,10 +2824,10 @@
         <v>44165</v>
       </c>
       <c r="B106">
-        <v>6.147041666666666</v>
+        <v>6.147041666666667</v>
       </c>
       <c r="C106">
-        <v>-0.1899583333333334</v>
+        <v>-0.1899583333333333</v>
       </c>
       <c r="D106">
         <v>11.83916666666667</v>
@@ -2847,7 +2847,7 @@
         <v>44166</v>
       </c>
       <c r="B107">
-        <v>5.899583333333335</v>
+        <v>5.899583333333333</v>
       </c>
       <c r="C107">
         <v>-0.07820833333333334</v>
@@ -2879,7 +2879,7 @@
         <v>12.92791666666667</v>
       </c>
       <c r="E108">
-        <v>0.04624999999999996</v>
+        <v>0.04625000000000001</v>
       </c>
       <c r="F108">
         <v>91</v>
@@ -2896,10 +2896,10 @@
         <v>5.459375000000001</v>
       </c>
       <c r="C109">
-        <v>-0.5077083333333334</v>
+        <v>-0.5077083333333333</v>
       </c>
       <c r="D109">
-        <v>10.48833333333334</v>
+        <v>10.48833333333333</v>
       </c>
       <c r="E109">
         <v>-1.112708333333333</v>
@@ -2922,10 +2922,10 @@
         <v>-0.2884166666666667</v>
       </c>
       <c r="D110">
-        <v>9.248333333333337</v>
+        <v>9.248333333333333</v>
       </c>
       <c r="E110">
-        <v>-0.8550833333333331</v>
+        <v>-0.8550833333333333</v>
       </c>
       <c r="F110">
         <v>84.875</v>
@@ -2968,10 +2968,10 @@
         <v>0.33275</v>
       </c>
       <c r="D112">
-        <v>6.809083333333333</v>
+        <v>6.809083333333334</v>
       </c>
       <c r="E112">
-        <v>2.182333333333334</v>
+        <v>2.182333333333333</v>
       </c>
       <c r="F112">
         <v>96.70833333333333</v>
@@ -2985,7 +2985,7 @@
         <v>44172</v>
       </c>
       <c r="B113">
-        <v>4.511541666666668</v>
+        <v>4.511541666666667</v>
       </c>
       <c r="C113">
         <v>-0.4750833333333334</v>
@@ -3008,13 +3008,13 @@
         <v>44173</v>
       </c>
       <c r="B114">
-        <v>4.451249999999999</v>
+        <v>4.45125</v>
       </c>
       <c r="C114">
         <v>-4.650458333333333</v>
       </c>
       <c r="D114">
-        <v>5.809250000000001</v>
+        <v>5.80925</v>
       </c>
       <c r="E114">
         <v>-3.088958333333334</v>
@@ -3031,16 +3031,16 @@
         <v>44174</v>
       </c>
       <c r="B115">
-        <v>4.425416666666668</v>
+        <v>4.425416666666666</v>
       </c>
       <c r="C115">
-        <v>-4.870333333333333</v>
+        <v>-4.870333333333334</v>
       </c>
       <c r="D115">
-        <v>5.971666666666668</v>
+        <v>5.971666666666667</v>
       </c>
       <c r="E115">
-        <v>-3.974291666666668</v>
+        <v>-3.974291666666666</v>
       </c>
       <c r="F115">
         <v>83.125</v>
@@ -3060,10 +3060,10 @@
         <v>-3.62825</v>
       </c>
       <c r="D116">
-        <v>5.629458333333335</v>
+        <v>5.629458333333333</v>
       </c>
       <c r="E116">
-        <v>-3.702916666666666</v>
+        <v>-3.702916666666667</v>
       </c>
       <c r="F116">
         <v>86.33333333333333</v>
@@ -3077,16 +3077,16 @@
         <v>44176</v>
       </c>
       <c r="B117">
-        <v>4.354958333333332</v>
+        <v>4.354958333333333</v>
       </c>
       <c r="C117">
         <v>-4.222666666666666</v>
       </c>
       <c r="D117">
-        <v>5.933916666666668</v>
+        <v>5.933916666666666</v>
       </c>
       <c r="E117">
-        <v>-4.134375000000001</v>
+        <v>-4.134374999999999</v>
       </c>
       <c r="F117">
         <v>87.83333333333333</v>
@@ -3100,10 +3100,10 @@
         <v>44177</v>
       </c>
       <c r="B118">
-        <v>4.376250000000002</v>
+        <v>4.37625</v>
       </c>
       <c r="C118">
-        <v>-1.932833333333334</v>
+        <v>-1.932833333333333</v>
       </c>
       <c r="D118">
         <v>5.956583333333334</v>
@@ -3132,7 +3132,7 @@
         <v>5.762250000000001</v>
       </c>
       <c r="E119">
-        <v>-2.910874999999999</v>
+        <v>-2.910875</v>
       </c>
       <c r="F119">
         <v>89.75</v>
@@ -3152,7 +3152,7 @@
         <v>-2.713916666666667</v>
       </c>
       <c r="D120">
-        <v>5.968291666666668</v>
+        <v>5.968291666666667</v>
       </c>
       <c r="E120">
         <v>-3.108625</v>
@@ -3169,7 +3169,7 @@
         <v>44180</v>
       </c>
       <c r="B121">
-        <v>4.545583333333334</v>
+        <v>4.545583333333333</v>
       </c>
       <c r="C121">
         <v>-1.828166666666666</v>
@@ -3178,7 +3178,7 @@
         <v>6.009541666666667</v>
       </c>
       <c r="E121">
-        <v>-2.689583333333334</v>
+        <v>-2.689583333333333</v>
       </c>
       <c r="F121">
         <v>91.08333333333333</v>
@@ -3192,10 +3192,10 @@
         <v>44181</v>
       </c>
       <c r="B122">
-        <v>4.548208333333332</v>
+        <v>4.548208333333333</v>
       </c>
       <c r="C122">
-        <v>-0.2451666666666666</v>
+        <v>-0.2451666666666667</v>
       </c>
       <c r="D122">
         <v>5.691416666666666</v>
@@ -3218,10 +3218,10 @@
         <v>4.5035</v>
       </c>
       <c r="C123">
-        <v>-0.6487916666666668</v>
+        <v>-0.6487916666666667</v>
       </c>
       <c r="D123">
-        <v>6.236791666666668</v>
+        <v>6.236791666666666</v>
       </c>
       <c r="E123">
         <v>-2.231458333333333</v>
@@ -3261,7 +3261,7 @@
         <v>44184</v>
       </c>
       <c r="B125">
-        <v>3.811916666666666</v>
+        <v>3.811916666666667</v>
       </c>
       <c r="C125">
         <v>-0.497625</v>
@@ -3270,7 +3270,7 @@
         <v>7.021541666666667</v>
       </c>
       <c r="E125">
-        <v>-1.485458333333333</v>
+        <v>-1.485458333333334</v>
       </c>
       <c r="F125">
         <v>94.95833333333333</v>
@@ -3333,7 +3333,7 @@
         <v>4.5585</v>
       </c>
       <c r="C128">
-        <v>-0.05574999999999999</v>
+        <v>-0.05575</v>
       </c>
       <c r="D128">
         <v>9.641666666666667</v>
@@ -3356,13 +3356,13 @@
         <v>4.513916666666667</v>
       </c>
       <c r="C129">
-        <v>0.05633333333333332</v>
+        <v>0.05633333333333333</v>
       </c>
       <c r="D129">
-        <v>9.899166666666664</v>
+        <v>9.899166666666668</v>
       </c>
       <c r="E129">
-        <v>-0.02837500000000002</v>
+        <v>-0.02837499999999999</v>
       </c>
       <c r="F129">
         <v>94.75</v>
@@ -3385,7 +3385,7 @@
         <v>9.811249999999999</v>
       </c>
       <c r="E130">
-        <v>-0.5793749999999999</v>
+        <v>-0.579375</v>
       </c>
       <c r="F130">
         <v>96.375</v>
@@ -3399,7 +3399,7 @@
         <v>44190</v>
       </c>
       <c r="B131">
-        <v>4.159333333333333</v>
+        <v>4.159333333333334</v>
       </c>
       <c r="C131">
         <v>-0.1712083333333333</v>
@@ -3422,13 +3422,13 @@
         <v>44191</v>
       </c>
       <c r="B132">
-        <v>3.639166666666666</v>
+        <v>3.639166666666667</v>
       </c>
       <c r="C132">
         <v>-0.637625</v>
       </c>
       <c r="D132">
-        <v>7.892791666666668</v>
+        <v>7.892791666666667</v>
       </c>
       <c r="E132">
         <v>-5.56125</v>
@@ -3445,16 +3445,16 @@
         <v>44192</v>
       </c>
       <c r="B133">
-        <v>3.548999999999999</v>
+        <v>3.549</v>
       </c>
       <c r="C133">
         <v>-0.4565</v>
       </c>
       <c r="D133">
-        <v>7.771916666666666</v>
+        <v>7.771916666666667</v>
       </c>
       <c r="E133">
-        <v>-3.602708333333333</v>
+        <v>-3.602708333333334</v>
       </c>
       <c r="F133">
         <v>89.83333333333333</v>
@@ -3517,7 +3517,7 @@
         <v>2.3365</v>
       </c>
       <c r="C136">
-        <v>-0.2484166666666667</v>
+        <v>-0.2484166666666666</v>
       </c>
       <c r="D136">
         <v>6.462666666666667</v>
@@ -3540,13 +3540,13 @@
         <v>2.259125</v>
       </c>
       <c r="C137">
-        <v>-0.09762500000000002</v>
+        <v>-0.097625</v>
       </c>
       <c r="D137">
         <v>5.744083333333333</v>
       </c>
       <c r="E137">
-        <v>0.6207083333333334</v>
+        <v>0.6207083333333333</v>
       </c>
       <c r="F137">
         <v>94.16666666666667</v>
@@ -3560,7 +3560,7 @@
         <v>44197</v>
       </c>
       <c r="B138">
-        <v>2.408333333333334</v>
+        <v>2.408333333333333</v>
       </c>
       <c r="C138">
         <v>-0.123</v>
@@ -3583,13 +3583,13 @@
         <v>44198</v>
       </c>
       <c r="B139">
-        <v>2.617499999999999</v>
+        <v>2.6175</v>
       </c>
       <c r="C139">
         <v>-0.09616666666666668</v>
       </c>
       <c r="D139">
-        <v>5.617625000000001</v>
+        <v>5.617625</v>
       </c>
       <c r="E139">
         <v>-1.51575</v>
@@ -3609,7 +3609,7 @@
         <v>2.732041666666667</v>
       </c>
       <c r="C140">
-        <v>0.0004166666666666659</v>
+        <v>0.0004166666666666668</v>
       </c>
       <c r="D140">
         <v>5.256791666666667</v>
@@ -3629,10 +3629,10 @@
         <v>44200</v>
       </c>
       <c r="B141">
-        <v>2.858041666666666</v>
+        <v>2.858041666666667</v>
       </c>
       <c r="C141">
-        <v>0.002375000000000001</v>
+        <v>0.002375</v>
       </c>
       <c r="D141">
         <v>5.377041666666667</v>
@@ -3678,10 +3678,10 @@
         <v>3.082458333333333</v>
       </c>
       <c r="C143">
-        <v>-0.2078749999999999</v>
+        <v>-0.207875</v>
       </c>
       <c r="D143">
-        <v>6.238666666666666</v>
+        <v>6.238666666666667</v>
       </c>
       <c r="E143">
         <v>-7.645208333333334</v>
@@ -3698,7 +3698,7 @@
         <v>44203</v>
       </c>
       <c r="B144">
-        <v>3.044291666666666</v>
+        <v>3.044291666666667</v>
       </c>
       <c r="C144">
         <v>-0.1039166666666667</v>
@@ -3707,7 +3707,7 @@
         <v>6.486916666666667</v>
       </c>
       <c r="E144">
-        <v>-6.892750000000002</v>
+        <v>-6.892749999999999</v>
       </c>
       <c r="F144">
         <v>90.375</v>
@@ -3727,7 +3727,7 @@
         <v>-0.3342083333333334</v>
       </c>
       <c r="D145">
-        <v>6.506041666666666</v>
+        <v>6.506041666666667</v>
       </c>
       <c r="E145">
         <v>-8.64625</v>
@@ -3744,13 +3744,13 @@
         <v>44205</v>
       </c>
       <c r="B146">
-        <v>2.785874999999999</v>
+        <v>2.785875</v>
       </c>
       <c r="C146">
         <v>-1.167625</v>
       </c>
       <c r="D146">
-        <v>6.154791666666668</v>
+        <v>6.154791666666667</v>
       </c>
       <c r="E146">
         <v>-15.97583333333333</v>
@@ -3790,16 +3790,16 @@
         <v>44207</v>
       </c>
       <c r="B148">
-        <v>2.348541666666666</v>
+        <v>2.348541666666667</v>
       </c>
       <c r="C148">
-        <v>-1.167541666666666</v>
+        <v>-1.167541666666667</v>
       </c>
       <c r="D148">
-        <v>5.864000000000001</v>
+        <v>5.864</v>
       </c>
       <c r="E148">
-        <v>-9.769166666666669</v>
+        <v>-9.769166666666667</v>
       </c>
       <c r="F148">
         <v>86.75</v>
@@ -3813,7 +3813,7 @@
         <v>44208</v>
       </c>
       <c r="B149">
-        <v>1.835958333333334</v>
+        <v>1.835958333333333</v>
       </c>
       <c r="C149">
         <v>-1.420791666666667</v>
@@ -3859,7 +3859,7 @@
         <v>44210</v>
       </c>
       <c r="B151">
-        <v>1.069416666666666</v>
+        <v>1.069416666666667</v>
       </c>
       <c r="C151">
         <v>-2.206583333333333</v>
@@ -3908,10 +3908,10 @@
         <v>1.205958333333333</v>
       </c>
       <c r="C153">
-        <v>-2.146708333333334</v>
+        <v>-2.146708333333333</v>
       </c>
       <c r="D153">
-        <v>3.071041666666667</v>
+        <v>3.071041666666666</v>
       </c>
       <c r="E153">
         <v>-17.11958333333333</v>
@@ -3931,10 +3931,10 @@
         <v>1.482958333333333</v>
       </c>
       <c r="C154">
-        <v>-1.312416666666666</v>
+        <v>-1.312416666666667</v>
       </c>
       <c r="D154">
-        <v>3.749583333333334</v>
+        <v>3.749583333333333</v>
       </c>
       <c r="E154">
         <v>-5.282416666666667</v>
@@ -3951,7 +3951,7 @@
         <v>44214</v>
       </c>
       <c r="B155">
-        <v>1.628541666666666</v>
+        <v>1.628541666666667</v>
       </c>
       <c r="C155">
         <v>-0.7975833333333333</v>
@@ -3977,13 +3977,13 @@
         <v>1.800416666666667</v>
       </c>
       <c r="C156">
-        <v>-0.7397499999999999</v>
+        <v>-0.73975</v>
       </c>
       <c r="D156">
         <v>4.270583333333334</v>
       </c>
       <c r="E156">
-        <v>-3.523083333333333</v>
+        <v>-3.523083333333334</v>
       </c>
       <c r="F156">
         <v>93.79166666666667</v>
@@ -4000,13 +4000,13 @@
         <v>1.915208333333333</v>
       </c>
       <c r="C157">
-        <v>-0.4948333333333332</v>
+        <v>-0.4948333333333333</v>
       </c>
       <c r="D157">
         <v>4.160875</v>
       </c>
       <c r="E157">
-        <v>-4.509416666666666</v>
+        <v>-4.509416666666667</v>
       </c>
       <c r="F157">
         <v>91.70833333333333</v>
@@ -4043,7 +4043,7 @@
         <v>44218</v>
       </c>
       <c r="B159">
-        <v>0.7525416666666666</v>
+        <v>0.7525416666666667</v>
       </c>
       <c r="C159">
         <v>-0.9542083333333333</v>
@@ -4066,16 +4066,16 @@
         <v>44219</v>
       </c>
       <c r="B160">
-        <v>0.7029583333333335</v>
+        <v>0.7029583333333332</v>
       </c>
       <c r="C160">
-        <v>-0.7464999999999998</v>
+        <v>-0.7465000000000001</v>
       </c>
       <c r="D160">
         <v>2.071416666666666</v>
       </c>
       <c r="E160">
-        <v>-2.986749999999999</v>
+        <v>-2.98675</v>
       </c>
       <c r="F160">
         <v>93.33333333333333</v>
@@ -4098,7 +4098,7 @@
         <v>1.375583333333333</v>
       </c>
       <c r="E161">
-        <v>0.5332499999999999</v>
+        <v>0.53325</v>
       </c>
       <c r="F161">
         <v>96.33333333333333</v>
@@ -4115,13 +4115,13 @@
         <v>1.082541666666667</v>
       </c>
       <c r="C162">
-        <v>-0.1552916666666666</v>
+        <v>-0.1552916666666667</v>
       </c>
       <c r="D162">
         <v>1.104708333333333</v>
       </c>
       <c r="E162">
-        <v>0.3883749999999999</v>
+        <v>0.388375</v>
       </c>
       <c r="F162">
         <v>97.625</v>
@@ -4135,7 +4135,7 @@
         <v>44222</v>
       </c>
       <c r="B163">
-        <v>1.220791666666666</v>
+        <v>1.220791666666667</v>
       </c>
       <c r="C163">
         <v>-0.1180833333333333</v>
@@ -4144,7 +4144,7 @@
         <v>1.113791666666667</v>
       </c>
       <c r="E163">
-        <v>0.4143749999999999</v>
+        <v>0.414375</v>
       </c>
       <c r="F163">
         <v>94.70833333333333</v>
@@ -4167,7 +4167,7 @@
         <v>1.251208333333333</v>
       </c>
       <c r="E164">
-        <v>0.2362916666666668</v>
+        <v>0.2362916666666667</v>
       </c>
       <c r="F164">
         <v>98.25</v>
@@ -4230,7 +4230,7 @@
         <v>1.407208333333333</v>
       </c>
       <c r="C167">
-        <v>-0.2157083333333334</v>
+        <v>-0.2157083333333333</v>
       </c>
       <c r="D167">
         <v>1.857458333333333</v>
@@ -4250,7 +4250,7 @@
         <v>44227</v>
       </c>
       <c r="B168">
-        <v>1.518583333333334</v>
+        <v>1.518583333333333</v>
       </c>
       <c r="C168">
         <v>-0.211125</v>
@@ -4299,13 +4299,13 @@
         <v>1.400916666666667</v>
       </c>
       <c r="C170">
-        <v>-0.4399583333333334</v>
+        <v>-0.4399583333333333</v>
       </c>
       <c r="D170">
         <v>3.261625</v>
       </c>
       <c r="E170">
-        <v>-17.80416666666666</v>
+        <v>-17.80416666666667</v>
       </c>
       <c r="F170">
         <v>83.45833333333333</v>
@@ -4325,7 +4325,7 @@
         <v>-0.4201666666666666</v>
       </c>
       <c r="D171">
-        <v>3.023791666666667</v>
+        <v>3.023791666666666</v>
       </c>
       <c r="E171">
         <v>-15.64125</v>
@@ -4342,7 +4342,7 @@
         <v>44231</v>
       </c>
       <c r="B172">
-        <v>0.9524583333333331</v>
+        <v>0.9524583333333333</v>
       </c>
       <c r="C172">
         <v>-0.5312083333333334</v>
@@ -4368,10 +4368,10 @@
         <v>0.6823333333333333</v>
       </c>
       <c r="C173">
-        <v>-0.6377500000000002</v>
+        <v>-0.63775</v>
       </c>
       <c r="D173">
-        <v>3.290541666666668</v>
+        <v>3.290541666666666</v>
       </c>
       <c r="E173">
         <v>-15.8525</v>
@@ -4417,7 +4417,7 @@
         <v>-0.5041666666666667</v>
       </c>
       <c r="D175">
-        <v>2.848291666666667</v>
+        <v>2.848291666666666</v>
       </c>
       <c r="E175">
         <v>-8.535291666666668</v>
@@ -4434,7 +4434,7 @@
         <v>44235</v>
       </c>
       <c r="B176">
-        <v>0.4154999999999999</v>
+        <v>0.4155</v>
       </c>
       <c r="C176">
         <v>-0.465875</v>
@@ -4457,7 +4457,7 @@
         <v>44236</v>
       </c>
       <c r="B177">
-        <v>0.3069999999999999</v>
+        <v>0.307</v>
       </c>
       <c r="C177">
         <v>-0.5355000000000001</v>
